--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, HENRY DE SAGUN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, HENRY DE SAGUN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E5C3CF-8791-4C27-ABFA-8C34213A9AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="273">
   <si>
     <t>PERIOD</t>
   </si>
@@ -859,7 +858,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1570,7 +1569,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1612,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1676,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1736,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1802,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1865,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1963,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2022,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2087,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2130,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2205,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2391,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2457,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2515,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2581,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2637,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2712,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2755,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2821,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2877,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2956,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2974,26 +2973,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K574" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K574" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K575"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3300,7 +3299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3310,7 +3309,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3318,34 +3317,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K574"/>
+  <dimension ref="A2:K575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A518" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="C534" sqref="C534"/>
+      <selection activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="H530" sqref="H530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3366,7 +3365,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3386,7 +3385,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3408,7 +3407,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3416,7 +3415,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3429,7 +3428,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3446,7 +3445,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3500,12 +3499,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.25</v>
+        <v>63.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>74</v>
       </c>
@@ -3527,7 +3526,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36861</v>
       </c>
@@ -3542,7 +3541,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>75</v>
       </c>
@@ -3557,7 +3556,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>36892</v>
       </c>
@@ -3577,7 +3576,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>36923</v>
@@ -3598,7 +3597,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A91" si="0">EDATE(A14,1)</f>
         <v>36951</v>
@@ -3619,7 +3618,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -3640,7 +3639,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -3661,7 +3660,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -3682,7 +3681,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -3703,7 +3702,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -3724,7 +3723,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -3745,7 +3744,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -3766,7 +3765,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>37196</v>
@@ -3787,7 +3786,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>37226</v>
@@ -3812,7 +3811,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>76</v>
       </c>
@@ -3834,7 +3833,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>37257</v>
@@ -3855,7 +3854,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -3876,7 +3875,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37316</v>
@@ -3897,7 +3896,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -3918,7 +3917,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -3939,7 +3938,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -3960,7 +3959,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -3981,7 +3980,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -4002,7 +4001,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -4023,7 +4022,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -4050,7 +4049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>99</v>
@@ -4070,7 +4069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>37561</v>
@@ -4091,7 +4090,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -4116,7 +4115,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>77</v>
       </c>
@@ -4138,7 +4137,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f>EDATE(A38,1)</f>
         <v>37622</v>
@@ -4159,7 +4158,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -4180,7 +4179,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -4207,7 +4206,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>49</v>
@@ -4229,7 +4228,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f>EDATE(A42,1)</f>
         <v>37712</v>
@@ -4250,7 +4249,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -4271,7 +4270,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -4292,7 +4291,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -4319,7 +4318,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -4340,7 +4339,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -4367,7 +4366,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>101</v>
@@ -4387,7 +4386,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f>EDATE(A49,1)</f>
         <v>37895</v>
@@ -4414,7 +4413,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>102</v>
@@ -4434,7 +4433,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f>EDATE(A51,1)</f>
         <v>37926</v>
@@ -4461,7 +4460,7 @@
         <v>37939</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4483,7 +4482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4503,7 +4502,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A53,1)</f>
         <v>37956</v>
@@ -4528,7 +4527,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>107</v>
@@ -4545,7 +4544,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>78</v>
       </c>
@@ -4567,7 +4566,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A56,1)</f>
         <v>37987</v>
@@ -4592,7 +4591,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>38018</v>
@@ -4617,7 +4616,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -4644,7 +4643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>113</v>
@@ -4661,7 +4660,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f>EDATE(A61,1)</f>
         <v>38078</v>
@@ -4688,7 +4687,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -4713,7 +4712,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -4734,7 +4733,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -4761,7 +4760,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>111</v>
@@ -4781,7 +4780,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EDATE(A66,1)</f>
         <v>38200</v>
@@ -4808,7 +4807,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>57</v>
@@ -4827,7 +4826,7 @@
         <v>38219</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -4844,7 +4843,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f>EDATE(A68,1)</f>
         <v>38231</v>
@@ -4869,7 +4868,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -4896,7 +4895,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -4921,7 +4920,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -4946,7 +4945,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -4963,7 +4962,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>79</v>
       </c>
@@ -4985,7 +4984,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A74,1)</f>
         <v>38353</v>
@@ -5012,7 +5011,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>57</v>
@@ -5034,7 +5033,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f>EDATE(A77,1)</f>
         <v>38384</v>
@@ -5055,7 +5054,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>38412</v>
@@ -5082,7 +5081,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -5104,7 +5103,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>38443</v>
@@ -5125,7 +5124,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="0"/>
         <v>38473</v>
@@ -5146,7 +5145,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="0"/>
         <v>38504</v>
@@ -5173,7 +5172,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>59</v>
@@ -5193,7 +5192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f>EDATE(A84,1)</f>
         <v>38534</v>
@@ -5214,7 +5213,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="0"/>
         <v>38565</v>
@@ -5241,7 +5240,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>125</v>
@@ -5260,7 +5259,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>38596</v>
@@ -5287,7 +5286,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f t="shared" si="0"/>
         <v>38626</v>
@@ -5314,7 +5313,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f t="shared" si="0"/>
         <v>38657</v>
@@ -5341,7 +5340,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>127</v>
@@ -5363,7 +5362,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f>EDATE(A91,1)</f>
         <v>38687</v>
@@ -5390,7 +5389,7 @@
         <v>38702</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>80</v>
       </c>
@@ -5408,7 +5407,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>38718</v>
@@ -5435,7 +5434,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>128</v>
@@ -5455,7 +5454,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f>EDATE(A95,1)</f>
         <v>38749</v>
@@ -5482,7 +5481,7 @@
         <v>38749</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>57</v>
@@ -5504,7 +5503,7 @@
         <v>38755</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>129</v>
@@ -5524,7 +5523,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A97,1)</f>
         <v>38777</v>
@@ -5551,7 +5550,7 @@
         <v>38777</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>52</v>
@@ -5573,7 +5572,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>47</v>
@@ -5595,7 +5594,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>134</v>
@@ -5615,7 +5614,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A100,1)</f>
         <v>38808</v>
@@ -5642,7 +5641,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>57</v>
@@ -5664,7 +5663,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>135</v>
@@ -5684,7 +5683,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f>EDATE(A104,1)</f>
         <v>38838</v>
@@ -5711,7 +5710,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>57</v>
@@ -5733,7 +5732,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>57</v>
@@ -5755,7 +5754,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -5775,7 +5774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>136</v>
@@ -5792,7 +5791,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A107,1)</f>
         <v>38869</v>
@@ -5819,7 +5818,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>137</v>
@@ -5839,7 +5838,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f>EDATE(A112,1)</f>
         <v>38899</v>
@@ -5866,7 +5865,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>57</v>
@@ -5888,7 +5887,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>57</v>
@@ -5910,7 +5909,7 @@
         <v>38918</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -5932,7 +5931,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
@@ -5952,7 +5951,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f>EDATE(A114,1)</f>
         <v>38930</v>
@@ -5979,7 +5978,7 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>57</v>
@@ -6001,7 +6000,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>47</v>
@@ -6021,7 +6020,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f>EDATE(A119,1)</f>
         <v>38961</v>
@@ -6048,7 +6047,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>140</v>
@@ -6068,7 +6067,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="50"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>57</v>
@@ -6090,7 +6089,7 @@
         <v>38981</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A122,1)</f>
         <v>38991</v>
@@ -6117,7 +6116,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -6139,7 +6138,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>57</v>
@@ -6159,7 +6158,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>57</v>
@@ -6181,7 +6180,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f>EDATE(A125,1)</f>
         <v>39022</v>
@@ -6208,7 +6207,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>57</v>
@@ -6230,7 +6229,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>57</v>
@@ -6252,7 +6251,7 @@
         <v>39042</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>57</v>
@@ -6274,7 +6273,7 @@
         <v>39045</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A129,1)</f>
         <v>39052</v>
@@ -6301,7 +6300,7 @@
         <v>39066</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>95</v>
@@ -6321,7 +6320,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>81</v>
       </c>
@@ -6343,7 +6342,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f>EDATE(A133,1)</f>
         <v>39083</v>
@@ -6370,7 +6369,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>142</v>
@@ -6390,7 +6389,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EDATE(A136,1)</f>
         <v>39114</v>
@@ -6417,7 +6416,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -6439,7 +6438,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>57</v>
@@ -6461,7 +6460,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>57</v>
@@ -6483,7 +6482,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>49</v>
@@ -6505,7 +6504,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>144</v>
@@ -6525,7 +6524,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="50"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f>EDATE(A138,1)</f>
         <v>39142</v>
@@ -6552,7 +6551,7 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>49</v>
@@ -6574,7 +6573,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>145</v>
@@ -6594,7 +6593,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>57</v>
@@ -6616,7 +6615,7 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -6638,7 +6637,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f>EDATE(A144,1)</f>
         <v>39173</v>
@@ -6665,7 +6664,7 @@
         <v>39197</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -6687,7 +6686,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>147</v>
@@ -6707,7 +6706,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>57</v>
@@ -6729,7 +6728,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>57</v>
@@ -6751,7 +6750,7 @@
         <v>39206</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f>EDATE(A149,1)</f>
         <v>39203</v>
@@ -6778,7 +6777,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>148</v>
@@ -6798,7 +6797,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>96</v>
@@ -6820,7 +6819,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f>EDATE(A154,1)</f>
         <v>39234</v>
@@ -6847,7 +6846,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>51</v>
@@ -6867,7 +6866,7 @@
         <v>39240</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>57</v>
@@ -6889,7 +6888,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>149</v>
@@ -6909,7 +6908,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>57</v>
@@ -6931,7 +6930,7 @@
         <v>39241</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f>EDATE(A157,1)</f>
         <v>39264</v>
@@ -6958,7 +6957,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>57</v>
@@ -6980,7 +6979,7 @@
         <v>39281</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>57</v>
@@ -7002,7 +7001,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f>EDATE(A162,1)</f>
         <v>39295</v>
@@ -7029,7 +7028,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>49</v>
@@ -7051,7 +7050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>116</v>
@@ -7071,7 +7070,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>156</v>
@@ -7089,7 +7088,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A165,1)</f>
         <v>39326</v>
@@ -7116,7 +7115,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>57</v>
@@ -7138,7 +7137,7 @@
         <v>39337</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -7160,7 +7159,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>57</v>
@@ -7182,7 +7181,7 @@
         <v>39343</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A169,1)</f>
         <v>39356</v>
@@ -7209,7 +7208,7 @@
         <v>39377</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>57</v>
@@ -7231,7 +7230,7 @@
         <v>39364</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>39387</v>
@@ -7258,7 +7257,7 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>57</v>
@@ -7280,7 +7279,7 @@
         <v>39407</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39417</v>
@@ -7307,7 +7306,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
         <v>82</v>
       </c>
@@ -7325,7 +7324,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39448</v>
@@ -7352,7 +7351,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>57</v>
@@ -7371,7 +7370,7 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>157</v>
@@ -7388,7 +7387,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f>EDATE(A179,1)</f>
         <v>39479</v>
@@ -7415,7 +7414,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>49</v>
@@ -7437,7 +7436,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>166</v>
@@ -7457,7 +7456,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="50"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f>EDATE(A182,1)</f>
         <v>39508</v>
@@ -7484,7 +7483,7 @@
         <v>39514</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>52</v>
@@ -7506,7 +7505,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -7526,7 +7525,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>167</v>
@@ -7546,7 +7545,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f>EDATE(A185,1)</f>
         <v>39539</v>
@@ -7573,7 +7572,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>168</v>
@@ -7593,7 +7592,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39569</v>
@@ -7620,7 +7619,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>57</v>
@@ -7642,7 +7641,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>169</v>
@@ -7662,7 +7661,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39600</v>
@@ -7689,7 +7688,7 @@
         <v>39622</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>170</v>
@@ -7709,7 +7708,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39630</v>
@@ -7736,7 +7735,7 @@
         <v>39631</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>57</v>
@@ -7758,7 +7757,7 @@
         <v>39645</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>171</v>
@@ -7778,7 +7777,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>39661</v>
@@ -7805,7 +7804,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>57</v>
@@ -7824,7 +7823,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>172</v>
@@ -7841,7 +7840,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39692</v>
@@ -7868,7 +7867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>57</v>
@@ -7887,7 +7886,7 @@
         <v>39715</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>177</v>
@@ -7904,7 +7903,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39722</v>
@@ -7931,7 +7930,7 @@
         <v>39741</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>57</v>
@@ -7953,7 +7952,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>178</v>
@@ -7973,7 +7972,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f>EDATE(A205,1)</f>
         <v>39753</v>
@@ -7998,7 +7997,7 @@
         <v>39777</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>57</v>
@@ -8020,7 +8019,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>179</v>
@@ -8040,7 +8039,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A208,1)</f>
         <v>39783</v>
@@ -8067,7 +8066,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>180</v>
@@ -8087,7 +8086,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="48" t="s">
         <v>83</v>
       </c>
@@ -8105,7 +8104,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>39814</v>
@@ -8132,7 +8131,7 @@
         <v>39820</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>57</v>
@@ -8154,7 +8153,7 @@
         <v>39827</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>57</v>
@@ -8176,7 +8175,7 @@
         <v>39841</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>169</v>
@@ -8196,7 +8195,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f>EDATE(A214,1)</f>
         <v>39845</v>
@@ -8223,7 +8222,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>68</v>
@@ -8243,7 +8242,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>181</v>
@@ -8263,7 +8262,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>39873</v>
@@ -8290,7 +8289,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>52</v>
@@ -8312,7 +8311,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -8332,7 +8331,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>185</v>
@@ -8352,7 +8351,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="50"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <f>EDATE(A221,1)</f>
         <v>39904</v>
@@ -8379,7 +8378,7 @@
         <v>39926</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>137</v>
@@ -8399,7 +8398,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f>EDATE(A225,1)</f>
         <v>39934</v>
@@ -8424,7 +8423,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f t="shared" ref="A228:A295" si="1">EDATE(A227,1)</f>
         <v>39965</v>
@@ -8449,7 +8448,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>57</v>
@@ -8471,7 +8470,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>49</v>
@@ -8491,7 +8490,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>187</v>
@@ -8513,7 +8512,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A228,1)</f>
         <v>39995</v>
@@ -8540,7 +8539,7 @@
         <v>40023</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>188</v>
@@ -8560,7 +8559,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>40026</v>
@@ -8587,7 +8586,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>68</v>
@@ -8609,7 +8608,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>40057</v>
@@ -8636,7 +8635,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>189</v>
@@ -8656,7 +8655,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f>EDATE(A236,1)</f>
         <v>40087</v>
@@ -8683,7 +8682,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>57</v>
@@ -8705,7 +8704,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>57</v>
@@ -8727,7 +8726,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>190</v>
@@ -8747,7 +8746,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f>EDATE(A238,1)</f>
         <v>40118</v>
@@ -8774,7 +8773,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>191</v>
@@ -8794,7 +8793,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f>EDATE(A242,1)</f>
         <v>40148</v>
@@ -8815,7 +8814,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="48" t="s">
         <v>84</v>
       </c>
@@ -8833,7 +8832,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>40179</v>
@@ -8858,7 +8857,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="1"/>
         <v>40210</v>
@@ -8885,7 +8884,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>68</v>
@@ -8907,7 +8906,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>195</v>
@@ -8927,7 +8926,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f>EDATE(A247,1)</f>
         <v>40238</v>
@@ -8954,7 +8953,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>68</v>
@@ -8976,7 +8975,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>196</v>
@@ -8996,7 +8995,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f>EDATE(A250,1)</f>
         <v>40269</v>
@@ -9023,7 +9022,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>197</v>
@@ -9043,7 +9042,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f>EDATE(A253,1)</f>
         <v>40299</v>
@@ -9070,7 +9069,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>57</v>
@@ -9092,7 +9091,7 @@
         <v>40316</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>51</v>
@@ -9112,7 +9111,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>198</v>
@@ -9132,7 +9131,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A255,1)</f>
         <v>40330</v>
@@ -9159,7 +9158,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>57</v>
@@ -9181,7 +9180,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>40360</v>
@@ -9208,7 +9207,7 @@
         <v>40375</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f t="shared" si="1"/>
         <v>40391</v>
@@ -9235,7 +9234,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>201</v>
@@ -9255,7 +9254,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f>EDATE(A262,1)</f>
         <v>40422</v>
@@ -9282,7 +9281,7 @@
         <v>40449</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>101</v>
@@ -9302,7 +9301,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>40452</v>
@@ -9329,7 +9328,7 @@
         <v>40470</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>51</v>
@@ -9349,7 +9348,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>202</v>
@@ -9369,7 +9368,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40483</v>
@@ -9396,7 +9395,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>57</v>
@@ -9418,7 +9417,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>95</v>
@@ -9440,7 +9439,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>203</v>
@@ -9460,7 +9459,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40513</v>
@@ -9487,7 +9486,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>204</v>
@@ -9507,7 +9506,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="48" t="s">
         <v>85</v>
       </c>
@@ -9529,7 +9528,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EDATE(A273,1)</f>
         <v>40544</v>
@@ -9554,7 +9553,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f t="shared" si="1"/>
         <v>40575</v>
@@ -9581,7 +9580,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>57</v>
@@ -9603,7 +9602,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>205</v>
@@ -9623,7 +9622,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A277,1)</f>
         <v>40603</v>
@@ -9650,7 +9649,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>57</v>
@@ -9672,7 +9671,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>164</v>
@@ -9692,7 +9691,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>211</v>
@@ -9709,7 +9708,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A280,1)</f>
         <v>40634</v>
@@ -9736,7 +9735,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>212</v>
@@ -9756,7 +9755,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
@@ -9783,7 +9782,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>51</v>
@@ -9803,7 +9802,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>92</v>
@@ -9825,7 +9824,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>57</v>
@@ -9847,7 +9846,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>170</v>
@@ -9867,7 +9866,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
@@ -9894,7 +9893,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>57</v>
@@ -9916,7 +9915,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>213</v>
@@ -9936,7 +9935,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>40725</v>
@@ -9957,7 +9956,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f t="shared" si="1"/>
         <v>40756</v>
@@ -9984,7 +9983,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>214</v>
@@ -10004,7 +10003,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A295,1)</f>
         <v>40787</v>
@@ -10031,7 +10030,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>57</v>
@@ -10053,7 +10052,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>95</v>
@@ -10075,7 +10074,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>215</v>
@@ -10095,7 +10094,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A297,1)</f>
         <v>40817</v>
@@ -10122,7 +10121,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>57</v>
@@ -10144,7 +10143,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>57</v>
@@ -10166,7 +10165,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>220</v>
@@ -10186,7 +10185,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="50"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <f>EDATE(A301,1)</f>
         <v>40848</v>
@@ -10213,7 +10212,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>57</v>
@@ -10235,7 +10234,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>221</v>
@@ -10255,7 +10254,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f>EDATE(A305,1)</f>
         <v>40878</v>
@@ -10282,7 +10281,7 @@
         <v>40885</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>57</v>
@@ -10304,7 +10303,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>222</v>
@@ -10324,7 +10323,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
         <v>86</v>
       </c>
@@ -10346,7 +10345,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A308,1)</f>
         <v>40909</v>
@@ -10373,7 +10372,7 @@
         <v>40932</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>226</v>
@@ -10393,7 +10392,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f>EDATE(A312,1)</f>
         <v>40940</v>
@@ -10420,7 +10419,7 @@
         <v>40942</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>95</v>
@@ -10442,7 +10441,7 @@
         <v>40961</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>69</v>
@@ -10464,7 +10463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>223</v>
@@ -10484,7 +10483,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f>EDATE(A314,1)</f>
         <v>40969</v>
@@ -10509,7 +10508,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f t="shared" ref="A319:A409" si="2">EDATE(A318,1)</f>
         <v>41000</v>
@@ -10536,7 +10535,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>57</v>
@@ -10558,7 +10557,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>57</v>
@@ -10580,7 +10579,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>57</v>
@@ -10602,7 +10601,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>253</v>
@@ -10622,7 +10621,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="50"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A319,1)</f>
         <v>41030</v>
@@ -10647,7 +10646,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>254</v>
@@ -10667,7 +10666,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f>EDATE(A324,1)</f>
         <v>41061</v>
@@ -10694,7 +10693,7 @@
         <v>41071</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -10716,7 +10715,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>255</v>
@@ -10736,7 +10735,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f>EDATE(A326,1)</f>
         <v>41091</v>
@@ -10763,7 +10762,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>57</v>
@@ -10785,7 +10784,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>256</v>
@@ -10805,7 +10804,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <f>EDATE(A329,1)</f>
         <v>41122</v>
@@ -10832,7 +10831,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>57</v>
@@ -10854,7 +10853,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <f>EDATE(A332,1)</f>
         <v>41153</v>
@@ -10881,7 +10880,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>257</v>
@@ -10901,7 +10900,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A334,1)</f>
         <v>41183</v>
@@ -10928,7 +10927,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>258</v>
@@ -10948,7 +10947,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>41214</v>
@@ -10975,7 +10974,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>57</v>
@@ -10997,7 +10996,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>259</v>
@@ -11017,7 +11016,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A338,1)</f>
         <v>41244</v>
@@ -11044,7 +11043,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="48" t="s">
         <v>87</v>
       </c>
@@ -11066,7 +11065,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>41275</v>
@@ -11087,7 +11086,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f t="shared" si="2"/>
         <v>41306</v>
@@ -11114,7 +11113,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>57</v>
@@ -11136,7 +11135,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A344,1)</f>
         <v>41334</v>
@@ -11163,7 +11162,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>59</v>
@@ -11183,7 +11182,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f>EDATE(A346,1)</f>
         <v>41365</v>
@@ -11210,7 +11209,7 @@
         <v>41375</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>140</v>
@@ -11232,7 +11231,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <f>EDATE(A348,1)</f>
         <v>41395</v>
@@ -11257,7 +11256,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" si="2"/>
         <v>41426</v>
@@ -11284,7 +11283,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f t="shared" si="2"/>
         <v>41456</v>
@@ -11311,7 +11310,7 @@
         <v>41473</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>57</v>
@@ -11333,7 +11332,7 @@
         <v>41479</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f>EDATE(A352,1)</f>
         <v>41487</v>
@@ -11360,7 +11359,7 @@
         <v>41492</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>57</v>
@@ -11382,7 +11381,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41518</v>
@@ -11409,7 +11408,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11431,7 +11430,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <f>EDATE(A356,1)</f>
         <v>41548</v>
@@ -11458,7 +11457,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>57</v>
@@ -11480,7 +11479,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <f>EDATE(A358,1)</f>
         <v>41579</v>
@@ -11507,7 +11506,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f t="shared" si="2"/>
         <v>41609</v>
@@ -11534,7 +11533,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>146</v>
@@ -11556,7 +11555,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="48" t="s">
         <v>88</v>
       </c>
@@ -11574,7 +11573,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <f>EDATE(A361,1)</f>
         <v>41640</v>
@@ -11601,7 +11600,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>262</v>
@@ -11623,7 +11622,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f>EDATE(A364,1)</f>
         <v>41671</v>
@@ -11644,7 +11643,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f t="shared" si="2"/>
         <v>41699</v>
@@ -11671,7 +11670,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>51</v>
@@ -11688,7 +11687,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>69</v>
@@ -11710,7 +11709,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>57</v>
@@ -11732,7 +11731,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>245</v>
@@ -11752,7 +11751,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <f>EDATE(A367,1)</f>
         <v>41730</v>
@@ -11779,7 +11778,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>168</v>
@@ -11799,7 +11798,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41760</v>
@@ -11826,7 +11825,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>57</v>
@@ -11848,7 +11847,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>57</v>
@@ -11870,7 +11869,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>51</v>
@@ -11890,7 +11889,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>187</v>
@@ -11910,7 +11909,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A374,1)</f>
         <v>41791</v>
@@ -11931,7 +11930,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f t="shared" si="2"/>
         <v>41821</v>
@@ -11958,7 +11957,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>246</v>
@@ -11978,7 +11977,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f>EDATE(A380,1)</f>
         <v>41852</v>
@@ -12005,7 +12004,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>247</v>
@@ -12025,7 +12024,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <f>EDATE(A382,1)</f>
         <v>41883</v>
@@ -12052,7 +12051,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>248</v>
@@ -12072,7 +12071,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f>EDATE(A384,1)</f>
         <v>41913</v>
@@ -12097,7 +12096,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>57</v>
@@ -12119,7 +12118,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>57</v>
@@ -12141,7 +12140,7 @@
         <v>41935</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41944</v>
@@ -12166,7 +12165,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>242</v>
@@ -12183,7 +12182,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A389,1)</f>
         <v>41974</v>
@@ -12208,7 +12207,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
         <v>89</v>
       </c>
@@ -12230,7 +12229,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42005</v>
@@ -12257,7 +12256,7 @@
         <v>42033</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>187</v>
@@ -12277,7 +12276,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42036</v>
@@ -12302,7 +12301,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>234</v>
@@ -12322,7 +12321,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42064</v>
@@ -12349,7 +12348,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>235</v>
@@ -12369,7 +12368,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <f>EDATE(A397,1)</f>
         <v>42095</v>
@@ -12396,7 +12395,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>187</v>
@@ -12416,7 +12415,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <f>EDATE(A399,1)</f>
         <v>42125</v>
@@ -12441,7 +12440,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f t="shared" si="2"/>
         <v>42156</v>
@@ -12466,7 +12465,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>57</v>
@@ -12488,7 +12487,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>236</v>
@@ -12508,7 +12507,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42186</v>
@@ -12533,7 +12532,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f t="shared" si="2"/>
         <v>42217</v>
@@ -12560,7 +12559,7 @@
         <v>42234</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>57</v>
@@ -12582,7 +12581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <f>EDATE(A406,1)</f>
         <v>42248</v>
@@ -12603,7 +12602,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f t="shared" si="2"/>
         <v>42278</v>
@@ -12630,7 +12629,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>49</v>
@@ -12652,7 +12651,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>228</v>
@@ -12672,7 +12671,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42309</v>
@@ -12697,7 +12696,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>229</v>
@@ -12717,7 +12716,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f>EDATE(A412,1)</f>
         <v>42339</v>
@@ -12744,7 +12743,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -12764,7 +12763,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="48" t="s">
         <v>90</v>
       </c>
@@ -12786,7 +12785,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>42370</v>
@@ -12813,7 +12812,7 @@
         <v>42387</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A433" si="3">EDATE(A417,1)</f>
         <v>42401</v>
@@ -12840,7 +12839,7 @@
         <v>42409</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>57</v>
@@ -12862,7 +12861,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>52</v>
@@ -12884,7 +12883,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>49</v>
@@ -12904,7 +12903,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f>EDATE(A418,1)</f>
         <v>42430</v>
@@ -12925,7 +12924,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -12952,7 +12951,7 @@
         <v>42466</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>57</v>
@@ -12974,7 +12973,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -12996,7 +12995,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>57</v>
@@ -13018,7 +13017,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <f>EDATE(A423,1)</f>
         <v>42491</v>
@@ -13039,7 +13038,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -13064,7 +13063,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -13085,7 +13084,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -13112,7 +13111,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -13133,7 +13132,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f t="shared" si="3"/>
         <v>42644</v>
@@ -13154,7 +13153,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <f t="shared" si="3"/>
         <v>42675</v>
@@ -13175,7 +13174,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f>EDATE(A433,1)</f>
         <v>42705</v>
@@ -13200,7 +13199,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>57</v>
@@ -13217,7 +13216,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>164</v>
@@ -13232,7 +13231,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="48" t="s">
         <v>91</v>
       </c>
@@ -13251,7 +13250,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f>EDATE(A434,1)</f>
         <v>42736</v>
@@ -13278,7 +13277,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <f t="shared" ref="A439:A447" si="4">EDATE(A438,1)</f>
         <v>42767</v>
@@ -13299,7 +13298,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f t="shared" si="4"/>
         <v>42795</v>
@@ -13326,7 +13325,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -13353,7 +13352,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>57</v>
@@ -13375,7 +13374,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42856</v>
@@ -13396,7 +13395,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -13421,7 +13420,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -13442,7 +13441,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <f t="shared" si="4"/>
         <v>42948</v>
@@ -13463,7 +13462,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -13484,7 +13483,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -13505,7 +13504,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f t="shared" ref="A449:A450" si="5">EDATE(A448,1)</f>
         <v>43040</v>
@@ -13526,7 +13525,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13553,7 +13552,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>51</v>
@@ -13573,7 +13572,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>46</v>
       </c>
@@ -13595,7 +13594,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43101</v>
       </c>
@@ -13621,7 +13620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43132</v>
       </c>
@@ -13641,7 +13640,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43160</v>
       </c>
@@ -13667,7 +13666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>43191</v>
       </c>
@@ -13687,7 +13686,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43221</v>
       </c>
@@ -13707,7 +13706,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43252</v>
       </c>
@@ -13731,7 +13730,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43282</v>
       </c>
@@ -13751,7 +13750,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43313</v>
       </c>
@@ -13771,7 +13770,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43344</v>
       </c>
@@ -13791,7 +13790,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43374</v>
       </c>
@@ -13815,7 +13814,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43405</v>
       </c>
@@ -13835,7 +13834,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43435</v>
       </c>
@@ -13859,7 +13858,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>52</v>
@@ -13883,7 +13882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
         <v>54</v>
       </c>
@@ -13901,7 +13900,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43466</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43497</v>
       </c>
@@ -13947,7 +13946,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43525</v>
       </c>
@@ -13967,7 +13966,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43556</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43586</v>
       </c>
@@ -14013,7 +14012,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>43617</v>
       </c>
@@ -14037,7 +14036,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43647</v>
       </c>
@@ -14057,7 +14056,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43678</v>
       </c>
@@ -14083,7 +14082,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43709</v>
       </c>
@@ -14103,7 +14102,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43739</v>
       </c>
@@ -14123,7 +14122,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43770</v>
       </c>
@@ -14143,7 +14142,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43800</v>
       </c>
@@ -14169,7 +14168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>59</v>
@@ -14191,7 +14190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
         <v>61</v>
       </c>
@@ -14209,7 +14208,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43831</v>
       </c>
@@ -14229,7 +14228,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43862</v>
       </c>
@@ -14253,7 +14252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43891</v>
       </c>
@@ -14273,7 +14272,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43922</v>
       </c>
@@ -14293,7 +14292,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43952</v>
       </c>
@@ -14313,7 +14312,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>43983</v>
       </c>
@@ -14333,7 +14332,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44013</v>
       </c>
@@ -14353,7 +14352,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44044</v>
       </c>
@@ -14373,7 +14372,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44075</v>
       </c>
@@ -14399,7 +14398,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>49</v>
@@ -14421,7 +14420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44105</v>
       </c>
@@ -14441,7 +14440,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44136</v>
       </c>
@@ -14461,7 +14460,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44166</v>
       </c>
@@ -14485,7 +14484,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="48" t="s">
         <v>66</v>
       </c>
@@ -14503,7 +14502,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44197</v>
       </c>
@@ -14523,7 +14522,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44228</v>
       </c>
@@ -14543,7 +14542,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44256</v>
       </c>
@@ -14563,7 +14562,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44287</v>
       </c>
@@ -14583,7 +14582,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44317</v>
       </c>
@@ -14603,7 +14602,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44348</v>
       </c>
@@ -14623,7 +14622,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44378</v>
       </c>
@@ -14643,7 +14642,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44409</v>
       </c>
@@ -14663,7 +14662,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44440</v>
       </c>
@@ -14683,7 +14682,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44470</v>
       </c>
@@ -14703,7 +14702,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>44501</v>
       </c>
@@ -14723,7 +14722,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44531</v>
       </c>
@@ -14747,7 +14746,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="48" t="s">
         <v>67</v>
       </c>
@@ -14765,7 +14764,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f>EDATE(A506,1)</f>
         <v>44562</v>
@@ -14786,7 +14785,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44593</v>
       </c>
@@ -14806,7 +14805,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44621</v>
       </c>
@@ -14826,7 +14825,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44652</v>
       </c>
@@ -14846,7 +14845,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44682</v>
       </c>
@@ -14866,7 +14865,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44713</v>
       </c>
@@ -14890,7 +14889,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44743</v>
       </c>
@@ -14910,7 +14909,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44774</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44805</v>
       </c>
@@ -14956,7 +14955,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44835</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44866</v>
       </c>
@@ -15006,7 +15005,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>68</v>
@@ -15028,7 +15027,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44896</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>69</v>
@@ -15076,7 +15075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="48" t="s">
         <v>71</v>
       </c>
@@ -15094,7 +15093,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44927</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44958</v>
       </c>
@@ -15146,7 +15145,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44986</v>
       </c>
@@ -15172,7 +15171,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45017</v>
       </c>
@@ -15192,7 +15191,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45047</v>
       </c>
@@ -15218,7 +15217,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45078</v>
       </c>
@@ -15240,11 +15239,11 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A529" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B529" s="20"/>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A529" s="40"/>
+      <c r="B529" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
       <c r="E529" s="9"/>
@@ -15253,14 +15252,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H529" s="39"/>
+      <c r="H529" s="39">
+        <v>1</v>
+      </c>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="20"/>
-    </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K529" s="50">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15276,9 +15279,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15294,9 +15297,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15312,9 +15315,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15330,9 +15333,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15348,9 +15351,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15366,9 +15369,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15384,9 +15387,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15402,9 +15405,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15420,9 +15423,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15438,9 +15441,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15456,9 +15459,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15474,9 +15477,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15492,9 +15495,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15510,9 +15513,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15528,9 +15531,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15546,9 +15549,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15564,9 +15567,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15582,9 +15585,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15600,9 +15603,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15618,9 +15621,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15636,9 +15639,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15654,9 +15657,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15672,9 +15675,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15690,9 +15693,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15708,9 +15711,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15726,9 +15729,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15744,9 +15747,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15762,9 +15765,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15780,9 +15783,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15798,9 +15801,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15816,9 +15819,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15834,9 +15837,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15852,9 +15855,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15870,9 +15873,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15888,9 +15891,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15906,9 +15909,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15924,9 +15927,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15942,9 +15945,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15960,9 +15963,9 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15978,9 +15981,9 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15996,8 +15999,10 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A571" s="40"/>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" s="40">
+        <v>46357</v>
+      </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
       <c r="D571" s="39"/>
@@ -16012,7 +16017,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16028,7 +16033,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16044,21 +16049,37 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A574" s="41"/>
-      <c r="B574" s="15"/>
-      <c r="C574" s="42"/>
-      <c r="D574" s="43"/>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" s="40"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
       <c r="E574" s="9"/>
-      <c r="F574" s="15"/>
-      <c r="G574" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H574" s="43"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
       <c r="I574" s="9"/>
-      <c r="J574" s="12"/>
-      <c r="K574" s="15"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" s="41"/>
+      <c r="B575" s="15"/>
+      <c r="C575" s="42"/>
+      <c r="D575" s="43"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="15"/>
+      <c r="G575" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="43"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="12"/>
+      <c r="K575" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16075,10 +16096,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16101,28 +16122,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16135,7 +16156,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16164,7 +16185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -16188,17 +16209,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16219,7 +16240,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16246,7 +16267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16272,7 +16293,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16298,7 +16319,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16324,7 +16345,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16350,7 +16371,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16376,7 +16397,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16402,7 +16423,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16428,7 +16449,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16448,7 +16469,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16468,7 +16489,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16488,7 +16509,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16509,7 +16530,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16530,7 +16551,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16551,7 +16572,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16572,7 +16593,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16593,7 +16614,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16614,7 +16635,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16635,7 +16656,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16656,7 +16677,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16677,7 +16698,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16698,7 +16719,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16719,7 +16740,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16740,7 +16761,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16761,7 +16782,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16782,7 +16803,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16803,7 +16824,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16824,7 +16845,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16845,7 +16866,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16866,7 +16887,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16887,7 +16908,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16908,7 +16929,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16917,7 +16938,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16926,7 +16947,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16935,7 +16956,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16944,7 +16965,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16953,7 +16974,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16962,7 +16983,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16971,7 +16992,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16980,7 +17001,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16989,7 +17010,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16998,7 +17019,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17007,7 +17028,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17016,7 +17037,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17025,7 +17046,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17034,7 +17055,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17043,7 +17064,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17052,7 +17073,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17061,7 +17082,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17070,7 +17091,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17079,7 +17100,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17088,7 +17109,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17097,7 +17118,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17106,7 +17127,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17115,7 +17136,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17124,7 +17145,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17133,7 +17154,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17142,7 +17163,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17151,7 +17172,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17160,7 +17181,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17169,7 +17190,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, HENRY DE SAGUN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, HENRY DE SAGUN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BFD668-265B-4620-8658-62A3BE52B512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="273">
   <si>
     <t>PERIOD</t>
   </si>
@@ -858,7 +859,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1569,7 +1570,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1613,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1677,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1737,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1803,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1866,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1964,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2023,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2088,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2131,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2206,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2392,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2458,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2516,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2582,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2638,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2713,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2756,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2822,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2878,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2957,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2973,26 +2974,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3299,7 +3300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3309,7 +3310,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3317,34 +3318,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K575"/>
+  <dimension ref="A2:K576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A518" activePane="bottomLeft"/>
       <selection activeCell="P3" sqref="P3"/>
-      <selection pane="bottomLeft" activeCell="H530" sqref="H530"/>
+      <selection pane="bottomLeft" activeCell="E531" sqref="E531"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3407,7 +3408,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3415,7 +3416,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3428,7 +3429,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3445,7 +3446,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3499,12 +3500,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.25</v>
+        <v>62.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +3527,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36861</v>
       </c>
@@ -3541,7 +3542,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>75</v>
       </c>
@@ -3556,7 +3557,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>36892</v>
       </c>
@@ -3576,7 +3577,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f>EDATE(A13,1)</f>
         <v>36923</v>
@@ -3597,7 +3598,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" ref="A15:A91" si="0">EDATE(A14,1)</f>
         <v>36951</v>
@@ -3618,7 +3619,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -3639,7 +3640,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -3660,7 +3661,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -3681,7 +3682,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -3702,7 +3703,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -3723,7 +3724,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -3744,7 +3745,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -3765,7 +3766,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>37196</v>
@@ -3786,7 +3787,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>37226</v>
@@ -3811,7 +3812,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>76</v>
       </c>
@@ -3833,7 +3834,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>37257</v>
@@ -3854,7 +3855,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -3875,7 +3876,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37316</v>
@@ -3896,7 +3897,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -3917,7 +3918,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -3938,7 +3939,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -3959,7 +3960,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -3980,7 +3981,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -4001,7 +4002,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -4022,7 +4023,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -4049,7 +4050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>99</v>
@@ -4069,7 +4070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>37561</v>
@@ -4090,7 +4091,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -4115,7 +4116,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>77</v>
       </c>
@@ -4137,7 +4138,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f>EDATE(A38,1)</f>
         <v>37622</v>
@@ -4158,7 +4159,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -4179,7 +4180,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -4206,7 +4207,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>49</v>
@@ -4228,7 +4229,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f>EDATE(A42,1)</f>
         <v>37712</v>
@@ -4249,7 +4250,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -4270,7 +4271,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -4291,7 +4292,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -4318,7 +4319,7 @@
         <v>37823</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -4339,7 +4340,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -4366,7 +4367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>101</v>
@@ -4386,7 +4387,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f>EDATE(A49,1)</f>
         <v>37895</v>
@@ -4413,7 +4414,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>102</v>
@@ -4433,7 +4434,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f>EDATE(A51,1)</f>
         <v>37926</v>
@@ -4460,7 +4461,7 @@
         <v>37939</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4482,7 +4483,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -4502,7 +4503,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f>EDATE(A53,1)</f>
         <v>37956</v>
@@ -4527,7 +4528,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>107</v>
@@ -4544,7 +4545,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>78</v>
       </c>
@@ -4566,7 +4567,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A56,1)</f>
         <v>37987</v>
@@ -4591,7 +4592,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>38018</v>
@@ -4616,7 +4617,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -4643,7 +4644,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>113</v>
@@ -4660,7 +4661,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f>EDATE(A61,1)</f>
         <v>38078</v>
@@ -4687,7 +4688,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -4712,7 +4713,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -4733,7 +4734,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -4760,7 +4761,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>111</v>
@@ -4780,7 +4781,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f>EDATE(A66,1)</f>
         <v>38200</v>
@@ -4807,7 +4808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>57</v>
@@ -4826,7 +4827,7 @@
         <v>38219</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>115</v>
@@ -4843,7 +4844,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f>EDATE(A68,1)</f>
         <v>38231</v>
@@ -4868,7 +4869,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -4895,7 +4896,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -4920,7 +4921,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -4945,7 +4946,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -4962,7 +4963,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>79</v>
       </c>
@@ -4984,7 +4985,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f>EDATE(A74,1)</f>
         <v>38353</v>
@@ -5011,7 +5012,7 @@
         <v>38357</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>57</v>
@@ -5033,7 +5034,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f>EDATE(A77,1)</f>
         <v>38384</v>
@@ -5054,7 +5055,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="0"/>
         <v>38412</v>
@@ -5081,7 +5082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -5103,7 +5104,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>38443</v>
@@ -5124,7 +5125,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <f t="shared" si="0"/>
         <v>38473</v>
@@ -5145,7 +5146,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <f t="shared" si="0"/>
         <v>38504</v>
@@ -5172,7 +5173,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>59</v>
@@ -5192,7 +5193,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <f>EDATE(A84,1)</f>
         <v>38534</v>
@@ -5213,7 +5214,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f t="shared" si="0"/>
         <v>38565</v>
@@ -5240,7 +5241,7 @@
         <v>38567</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>125</v>
@@ -5259,7 +5260,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>38596</v>
@@ -5286,7 +5287,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f t="shared" si="0"/>
         <v>38626</v>
@@ -5313,7 +5314,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f t="shared" si="0"/>
         <v>38657</v>
@@ -5340,7 +5341,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>127</v>
@@ -5362,7 +5363,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f>EDATE(A91,1)</f>
         <v>38687</v>
@@ -5389,7 +5390,7 @@
         <v>38702</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>80</v>
       </c>
@@ -5407,7 +5408,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>38718</v>
@@ -5434,7 +5435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>128</v>
@@ -5454,7 +5455,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f>EDATE(A95,1)</f>
         <v>38749</v>
@@ -5481,7 +5482,7 @@
         <v>38749</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>57</v>
@@ -5503,7 +5504,7 @@
         <v>38755</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>129</v>
@@ -5523,7 +5524,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A97,1)</f>
         <v>38777</v>
@@ -5550,7 +5551,7 @@
         <v>38777</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>52</v>
@@ -5572,7 +5573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>47</v>
@@ -5594,7 +5595,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>134</v>
@@ -5614,7 +5615,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f>EDATE(A100,1)</f>
         <v>38808</v>
@@ -5641,7 +5642,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>57</v>
@@ -5663,7 +5664,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>135</v>
@@ -5683,7 +5684,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f>EDATE(A104,1)</f>
         <v>38838</v>
@@ -5710,7 +5711,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>57</v>
@@ -5732,7 +5733,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>57</v>
@@ -5754,7 +5755,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -5774,7 +5775,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>136</v>
@@ -5791,7 +5792,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f>EDATE(A107,1)</f>
         <v>38869</v>
@@ -5818,7 +5819,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>137</v>
@@ -5838,7 +5839,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f>EDATE(A112,1)</f>
         <v>38899</v>
@@ -5865,7 +5866,7 @@
         <v>38903</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>57</v>
@@ -5887,7 +5888,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>57</v>
@@ -5909,7 +5910,7 @@
         <v>38918</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>57</v>
@@ -5931,7 +5932,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
@@ -5951,7 +5952,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f>EDATE(A114,1)</f>
         <v>38930</v>
@@ -5978,7 +5979,7 @@
         <v>38930</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>57</v>
@@ -6000,7 +6001,7 @@
         <v>38944</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>47</v>
@@ -6020,7 +6021,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f>EDATE(A119,1)</f>
         <v>38961</v>
@@ -6047,7 +6048,7 @@
         <v>38972</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>140</v>
@@ -6067,7 +6068,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="50"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>57</v>
@@ -6089,7 +6090,7 @@
         <v>38981</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f>EDATE(A122,1)</f>
         <v>38991</v>
@@ -6116,7 +6117,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>57</v>
@@ -6138,7 +6139,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>57</v>
@@ -6158,7 +6159,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>57</v>
@@ -6180,7 +6181,7 @@
         <v>39007</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f>EDATE(A125,1)</f>
         <v>39022</v>
@@ -6207,7 +6208,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>57</v>
@@ -6229,7 +6230,7 @@
         <v>39030</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>57</v>
@@ -6251,7 +6252,7 @@
         <v>39042</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>57</v>
@@ -6273,7 +6274,7 @@
         <v>39045</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f>EDATE(A129,1)</f>
         <v>39052</v>
@@ -6300,7 +6301,7 @@
         <v>39066</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>95</v>
@@ -6320,7 +6321,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>81</v>
       </c>
@@ -6342,7 +6343,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f>EDATE(A133,1)</f>
         <v>39083</v>
@@ -6369,7 +6370,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>142</v>
@@ -6389,7 +6390,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f>EDATE(A136,1)</f>
         <v>39114</v>
@@ -6416,7 +6417,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -6438,7 +6439,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>57</v>
@@ -6460,7 +6461,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>57</v>
@@ -6482,7 +6483,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>49</v>
@@ -6504,7 +6505,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>144</v>
@@ -6524,7 +6525,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="50"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EDATE(A138,1)</f>
         <v>39142</v>
@@ -6551,7 +6552,7 @@
         <v>39143</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>49</v>
@@ -6573,7 +6574,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>145</v>
@@ -6593,7 +6594,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>57</v>
@@ -6615,7 +6616,7 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>146</v>
@@ -6637,7 +6638,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f>EDATE(A144,1)</f>
         <v>39173</v>
@@ -6664,7 +6665,7 @@
         <v>39197</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -6686,7 +6687,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>147</v>
@@ -6706,7 +6707,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>57</v>
@@ -6728,7 +6729,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>57</v>
@@ -6750,7 +6751,7 @@
         <v>39206</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <f>EDATE(A149,1)</f>
         <v>39203</v>
@@ -6777,7 +6778,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>148</v>
@@ -6797,7 +6798,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>96</v>
@@ -6819,7 +6820,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f>EDATE(A154,1)</f>
         <v>39234</v>
@@ -6846,7 +6847,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>51</v>
@@ -6866,7 +6867,7 @@
         <v>39240</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>57</v>
@@ -6888,7 +6889,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>149</v>
@@ -6908,7 +6909,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>57</v>
@@ -6930,7 +6931,7 @@
         <v>39241</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f>EDATE(A157,1)</f>
         <v>39264</v>
@@ -6957,7 +6958,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>57</v>
@@ -6979,7 +6980,7 @@
         <v>39281</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>57</v>
@@ -7001,7 +7002,7 @@
         <v>39287</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f>EDATE(A162,1)</f>
         <v>39295</v>
@@ -7028,7 +7029,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>49</v>
@@ -7050,7 +7051,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>116</v>
@@ -7070,7 +7071,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>156</v>
@@ -7088,7 +7089,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <f>EDATE(A165,1)</f>
         <v>39326</v>
@@ -7115,7 +7116,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>57</v>
@@ -7137,7 +7138,7 @@
         <v>39337</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -7159,7 +7160,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>57</v>
@@ -7181,7 +7182,7 @@
         <v>39343</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <f>EDATE(A169,1)</f>
         <v>39356</v>
@@ -7208,7 +7209,7 @@
         <v>39377</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>57</v>
@@ -7230,7 +7231,7 @@
         <v>39364</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>39387</v>
@@ -7257,7 +7258,7 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>57</v>
@@ -7279,7 +7280,7 @@
         <v>39407</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A175,1)</f>
         <v>39417</v>
@@ -7306,7 +7307,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="48" t="s">
         <v>82</v>
       </c>
@@ -7324,7 +7325,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A177,1)</f>
         <v>39448</v>
@@ -7351,7 +7352,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>57</v>
@@ -7370,7 +7371,7 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>157</v>
@@ -7387,7 +7388,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f>EDATE(A179,1)</f>
         <v>39479</v>
@@ -7414,7 +7415,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>49</v>
@@ -7436,7 +7437,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>166</v>
@@ -7456,7 +7457,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="50"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <f>EDATE(A182,1)</f>
         <v>39508</v>
@@ -7483,7 +7484,7 @@
         <v>39514</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>52</v>
@@ -7505,7 +7506,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -7525,7 +7526,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>167</v>
@@ -7545,7 +7546,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <f>EDATE(A185,1)</f>
         <v>39539</v>
@@ -7572,7 +7573,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>168</v>
@@ -7592,7 +7593,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A189,1)</f>
         <v>39569</v>
@@ -7619,7 +7620,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>57</v>
@@ -7641,7 +7642,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>169</v>
@@ -7661,7 +7662,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>39600</v>
@@ -7688,7 +7689,7 @@
         <v>39622</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>170</v>
@@ -7708,7 +7709,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>39630</v>
@@ -7735,7 +7736,7 @@
         <v>39631</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>57</v>
@@ -7757,7 +7758,7 @@
         <v>39645</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>171</v>
@@ -7777,7 +7778,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>39661</v>
@@ -7804,7 +7805,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>57</v>
@@ -7823,7 +7824,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>172</v>
@@ -7840,7 +7841,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f>EDATE(A199,1)</f>
         <v>39692</v>
@@ -7867,7 +7868,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>57</v>
@@ -7886,7 +7887,7 @@
         <v>39715</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>177</v>
@@ -7903,7 +7904,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>39722</v>
@@ -7930,7 +7931,7 @@
         <v>39741</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>57</v>
@@ -7952,7 +7953,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>178</v>
@@ -7972,7 +7973,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <f>EDATE(A205,1)</f>
         <v>39753</v>
@@ -7997,7 +7998,7 @@
         <v>39777</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>57</v>
@@ -8019,7 +8020,7 @@
         <v>39784</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>179</v>
@@ -8039,7 +8040,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A208,1)</f>
         <v>39783</v>
@@ -8066,7 +8067,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>180</v>
@@ -8086,7 +8087,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="48" t="s">
         <v>83</v>
       </c>
@@ -8104,7 +8105,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>39814</v>
@@ -8131,7 +8132,7 @@
         <v>39820</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>57</v>
@@ -8153,7 +8154,7 @@
         <v>39827</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>57</v>
@@ -8175,7 +8176,7 @@
         <v>39841</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>169</v>
@@ -8195,7 +8196,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <f>EDATE(A214,1)</f>
         <v>39845</v>
@@ -8222,7 +8223,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>68</v>
@@ -8242,7 +8243,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>181</v>
@@ -8262,7 +8263,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <f>EDATE(A218,1)</f>
         <v>39873</v>
@@ -8289,7 +8290,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>52</v>
@@ -8311,7 +8312,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -8331,7 +8332,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>185</v>
@@ -8351,7 +8352,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="50"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <f>EDATE(A221,1)</f>
         <v>39904</v>
@@ -8378,7 +8379,7 @@
         <v>39926</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>137</v>
@@ -8398,7 +8399,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <f>EDATE(A225,1)</f>
         <v>39934</v>
@@ -8423,7 +8424,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f t="shared" ref="A228:A295" si="1">EDATE(A227,1)</f>
         <v>39965</v>
@@ -8448,7 +8449,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>57</v>
@@ -8470,7 +8471,7 @@
         <v>39974</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>49</v>
@@ -8490,7 +8491,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>187</v>
@@ -8512,7 +8513,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A228,1)</f>
         <v>39995</v>
@@ -8539,7 +8540,7 @@
         <v>40023</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>188</v>
@@ -8559,7 +8560,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>40026</v>
@@ -8586,7 +8587,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>68</v>
@@ -8608,7 +8609,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>40057</v>
@@ -8635,7 +8636,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>189</v>
@@ -8655,7 +8656,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <f>EDATE(A236,1)</f>
         <v>40087</v>
@@ -8682,7 +8683,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>57</v>
@@ -8704,7 +8705,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>57</v>
@@ -8726,7 +8727,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>190</v>
@@ -8746,7 +8747,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <f>EDATE(A238,1)</f>
         <v>40118</v>
@@ -8773,7 +8774,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>191</v>
@@ -8793,7 +8794,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <f>EDATE(A242,1)</f>
         <v>40148</v>
@@ -8814,7 +8815,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="48" t="s">
         <v>84</v>
       </c>
@@ -8832,7 +8833,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f>EDATE(A244,1)</f>
         <v>40179</v>
@@ -8857,7 +8858,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f t="shared" si="1"/>
         <v>40210</v>
@@ -8884,7 +8885,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>68</v>
@@ -8906,7 +8907,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>195</v>
@@ -8926,7 +8927,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <f>EDATE(A247,1)</f>
         <v>40238</v>
@@ -8953,7 +8954,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>68</v>
@@ -8975,7 +8976,7 @@
         <v>40263</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>196</v>
@@ -8995,7 +8996,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <f>EDATE(A250,1)</f>
         <v>40269</v>
@@ -9022,7 +9023,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>197</v>
@@ -9042,7 +9043,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <f>EDATE(A253,1)</f>
         <v>40299</v>
@@ -9069,7 +9070,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>57</v>
@@ -9091,7 +9092,7 @@
         <v>40316</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>51</v>
@@ -9111,7 +9112,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>198</v>
@@ -9131,7 +9132,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f>EDATE(A255,1)</f>
         <v>40330</v>
@@ -9158,7 +9159,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>57</v>
@@ -9180,7 +9181,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <f>EDATE(A259,1)</f>
         <v>40360</v>
@@ -9207,7 +9208,7 @@
         <v>40375</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <f t="shared" si="1"/>
         <v>40391</v>
@@ -9234,7 +9235,7 @@
         <v>40408</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>201</v>
@@ -9254,7 +9255,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <f>EDATE(A262,1)</f>
         <v>40422</v>
@@ -9281,7 +9282,7 @@
         <v>40449</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>101</v>
@@ -9301,7 +9302,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>40452</v>
@@ -9328,7 +9329,7 @@
         <v>40470</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>51</v>
@@ -9348,7 +9349,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>202</v>
@@ -9368,7 +9369,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <f>EDATE(A266,1)</f>
         <v>40483</v>
@@ -9395,7 +9396,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>57</v>
@@ -9417,7 +9418,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>95</v>
@@ -9439,7 +9440,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>203</v>
@@ -9459,7 +9460,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <f>EDATE(A269,1)</f>
         <v>40513</v>
@@ -9486,7 +9487,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>204</v>
@@ -9506,7 +9507,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="48" t="s">
         <v>85</v>
       </c>
@@ -9528,7 +9529,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f>EDATE(A273,1)</f>
         <v>40544</v>
@@ -9553,7 +9554,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <f t="shared" si="1"/>
         <v>40575</v>
@@ -9580,7 +9581,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>57</v>
@@ -9602,7 +9603,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>205</v>
@@ -9622,7 +9623,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f>EDATE(A277,1)</f>
         <v>40603</v>
@@ -9649,7 +9650,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>57</v>
@@ -9671,7 +9672,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>164</v>
@@ -9691,7 +9692,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>211</v>
@@ -9708,7 +9709,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A280,1)</f>
         <v>40634</v>
@@ -9735,7 +9736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>212</v>
@@ -9755,7 +9756,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
@@ -9782,7 +9783,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>51</v>
@@ -9802,7 +9803,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>92</v>
@@ -9824,7 +9825,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>57</v>
@@ -9846,7 +9847,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>170</v>
@@ -9866,7 +9867,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
@@ -9893,7 +9894,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>57</v>
@@ -9915,7 +9916,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>213</v>
@@ -9935,7 +9936,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>40725</v>
@@ -9956,7 +9957,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <f t="shared" si="1"/>
         <v>40756</v>
@@ -9983,7 +9984,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>214</v>
@@ -10003,7 +10004,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f>EDATE(A295,1)</f>
         <v>40787</v>
@@ -10030,7 +10031,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>57</v>
@@ -10052,7 +10053,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>95</v>
@@ -10074,7 +10075,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>215</v>
@@ -10094,7 +10095,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f>EDATE(A297,1)</f>
         <v>40817</v>
@@ -10121,7 +10122,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>57</v>
@@ -10143,7 +10144,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>57</v>
@@ -10165,7 +10166,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>220</v>
@@ -10185,7 +10186,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="50"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <f>EDATE(A301,1)</f>
         <v>40848</v>
@@ -10212,7 +10213,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>57</v>
@@ -10234,7 +10235,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>221</v>
@@ -10254,7 +10255,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <f>EDATE(A305,1)</f>
         <v>40878</v>
@@ -10281,7 +10282,7 @@
         <v>40885</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>57</v>
@@ -10303,7 +10304,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>222</v>
@@ -10323,7 +10324,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="48" t="s">
         <v>86</v>
       </c>
@@ -10345,7 +10346,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f>EDATE(A308,1)</f>
         <v>40909</v>
@@ -10372,7 +10373,7 @@
         <v>40932</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>226</v>
@@ -10392,7 +10393,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f>EDATE(A312,1)</f>
         <v>40940</v>
@@ -10419,7 +10420,7 @@
         <v>40942</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>95</v>
@@ -10441,7 +10442,7 @@
         <v>40961</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>69</v>
@@ -10463,7 +10464,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>223</v>
@@ -10483,7 +10484,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f>EDATE(A314,1)</f>
         <v>40969</v>
@@ -10508,7 +10509,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f t="shared" ref="A319:A409" si="2">EDATE(A318,1)</f>
         <v>41000</v>
@@ -10535,7 +10536,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>57</v>
@@ -10557,7 +10558,7 @@
         <v>41024</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>57</v>
@@ -10579,7 +10580,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>57</v>
@@ -10601,7 +10602,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>253</v>
@@ -10621,7 +10622,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="50"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A319,1)</f>
         <v>41030</v>
@@ -10646,7 +10647,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>254</v>
@@ -10666,7 +10667,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <f>EDATE(A324,1)</f>
         <v>41061</v>
@@ -10693,7 +10694,7 @@
         <v>41071</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>57</v>
@@ -10715,7 +10716,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>255</v>
@@ -10735,7 +10736,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f>EDATE(A326,1)</f>
         <v>41091</v>
@@ -10762,7 +10763,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>57</v>
@@ -10784,7 +10785,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>256</v>
@@ -10804,7 +10805,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <f>EDATE(A329,1)</f>
         <v>41122</v>
@@ -10831,7 +10832,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>57</v>
@@ -10853,7 +10854,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <f>EDATE(A332,1)</f>
         <v>41153</v>
@@ -10880,7 +10881,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>257</v>
@@ -10900,7 +10901,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f>EDATE(A334,1)</f>
         <v>41183</v>
@@ -10927,7 +10928,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>258</v>
@@ -10947,7 +10948,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>41214</v>
@@ -10974,7 +10975,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>57</v>
@@ -10996,7 +10997,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>259</v>
@@ -11016,7 +11017,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A338,1)</f>
         <v>41244</v>
@@ -11043,7 +11044,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="48" t="s">
         <v>87</v>
       </c>
@@ -11065,7 +11066,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>41275</v>
@@ -11086,7 +11087,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <f t="shared" si="2"/>
         <v>41306</v>
@@ -11113,7 +11114,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>57</v>
@@ -11135,7 +11136,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <f>EDATE(A344,1)</f>
         <v>41334</v>
@@ -11162,7 +11163,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>59</v>
@@ -11182,7 +11183,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <f>EDATE(A346,1)</f>
         <v>41365</v>
@@ -11209,7 +11210,7 @@
         <v>41375</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>140</v>
@@ -11231,7 +11232,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <f>EDATE(A348,1)</f>
         <v>41395</v>
@@ -11256,7 +11257,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f t="shared" si="2"/>
         <v>41426</v>
@@ -11283,7 +11284,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <f t="shared" si="2"/>
         <v>41456</v>
@@ -11310,7 +11311,7 @@
         <v>41473</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>57</v>
@@ -11332,7 +11333,7 @@
         <v>41479</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <f>EDATE(A352,1)</f>
         <v>41487</v>
@@ -11359,7 +11360,7 @@
         <v>41492</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>57</v>
@@ -11381,7 +11382,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>41518</v>
@@ -11408,7 +11409,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>57</v>
@@ -11430,7 +11431,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <f>EDATE(A356,1)</f>
         <v>41548</v>
@@ -11457,7 +11458,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>57</v>
@@ -11479,7 +11480,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f>EDATE(A358,1)</f>
         <v>41579</v>
@@ -11506,7 +11507,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f t="shared" si="2"/>
         <v>41609</v>
@@ -11533,7 +11534,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>146</v>
@@ -11555,7 +11556,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="48" t="s">
         <v>88</v>
       </c>
@@ -11573,7 +11574,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <f>EDATE(A361,1)</f>
         <v>41640</v>
@@ -11600,7 +11601,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>262</v>
@@ -11622,7 +11623,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f>EDATE(A364,1)</f>
         <v>41671</v>
@@ -11643,7 +11644,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <f t="shared" si="2"/>
         <v>41699</v>
@@ -11670,7 +11671,7 @@
         <v>41703</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>51</v>
@@ -11687,7 +11688,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>69</v>
@@ -11709,7 +11710,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>57</v>
@@ -11731,7 +11732,7 @@
         <v>41733</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>245</v>
@@ -11751,7 +11752,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f>EDATE(A367,1)</f>
         <v>41730</v>
@@ -11778,7 +11779,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>168</v>
@@ -11798,7 +11799,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <f>EDATE(A372,1)</f>
         <v>41760</v>
@@ -11825,7 +11826,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23"/>
       <c r="B375" s="20" t="s">
         <v>57</v>
@@ -11847,7 +11848,7 @@
         <v>41768</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>57</v>
@@ -11869,7 +11870,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>51</v>
@@ -11889,7 +11890,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>187</v>
@@ -11909,7 +11910,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A374,1)</f>
         <v>41791</v>
@@ -11930,7 +11931,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f t="shared" si="2"/>
         <v>41821</v>
@@ -11957,7 +11958,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>246</v>
@@ -11977,7 +11978,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f>EDATE(A380,1)</f>
         <v>41852</v>
@@ -12004,7 +12005,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>247</v>
@@ -12024,7 +12025,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f>EDATE(A382,1)</f>
         <v>41883</v>
@@ -12051,7 +12052,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>248</v>
@@ -12071,7 +12072,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f>EDATE(A384,1)</f>
         <v>41913</v>
@@ -12096,7 +12097,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>57</v>
@@ -12118,7 +12119,7 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>57</v>
@@ -12140,7 +12141,7 @@
         <v>41935</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41944</v>
@@ -12165,7 +12166,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>242</v>
@@ -12182,7 +12183,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A389,1)</f>
         <v>41974</v>
@@ -12207,7 +12208,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="48" t="s">
         <v>89</v>
       </c>
@@ -12229,7 +12230,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <f>EDATE(A391,1)</f>
         <v>42005</v>
@@ -12256,7 +12257,7 @@
         <v>42033</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>187</v>
@@ -12276,7 +12277,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f>EDATE(A393,1)</f>
         <v>42036</v>
@@ -12301,7 +12302,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>234</v>
@@ -12321,7 +12322,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23">
         <f>EDATE(A395,1)</f>
         <v>42064</v>
@@ -12348,7 +12349,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>235</v>
@@ -12368,7 +12369,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <f>EDATE(A397,1)</f>
         <v>42095</v>
@@ -12395,7 +12396,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>187</v>
@@ -12415,7 +12416,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23">
         <f>EDATE(A399,1)</f>
         <v>42125</v>
@@ -12440,7 +12441,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <f t="shared" si="2"/>
         <v>42156</v>
@@ -12465,7 +12466,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>57</v>
@@ -12487,7 +12488,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>236</v>
@@ -12507,7 +12508,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <f>EDATE(A402,1)</f>
         <v>42186</v>
@@ -12532,7 +12533,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <f t="shared" si="2"/>
         <v>42217</v>
@@ -12559,7 +12560,7 @@
         <v>42234</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>57</v>
@@ -12581,7 +12582,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <f>EDATE(A406,1)</f>
         <v>42248</v>
@@ -12602,7 +12603,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <f t="shared" si="2"/>
         <v>42278</v>
@@ -12629,7 +12630,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>49</v>
@@ -12651,7 +12652,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>228</v>
@@ -12671,7 +12672,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <f>EDATE(A409,1)</f>
         <v>42309</v>
@@ -12696,7 +12697,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>229</v>
@@ -12716,7 +12717,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <f>EDATE(A412,1)</f>
         <v>42339</v>
@@ -12743,7 +12744,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>230</v>
@@ -12763,7 +12764,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="48" t="s">
         <v>90</v>
       </c>
@@ -12785,7 +12786,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>42370</v>
@@ -12812,7 +12813,7 @@
         <v>42387</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <f t="shared" ref="A418:A433" si="3">EDATE(A417,1)</f>
         <v>42401</v>
@@ -12839,7 +12840,7 @@
         <v>42409</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>57</v>
@@ -12861,7 +12862,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>52</v>
@@ -12883,7 +12884,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>49</v>
@@ -12903,7 +12904,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <f>EDATE(A418,1)</f>
         <v>42430</v>
@@ -12924,7 +12925,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -12951,7 +12952,7 @@
         <v>42466</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>57</v>
@@ -12973,7 +12974,7 @@
         <v>42489</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -12995,7 +12996,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>57</v>
@@ -13017,7 +13018,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <f>EDATE(A423,1)</f>
         <v>42491</v>
@@ -13038,7 +13039,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -13063,7 +13064,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -13084,7 +13085,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -13111,7 +13112,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -13132,7 +13133,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f t="shared" si="3"/>
         <v>42644</v>
@@ -13153,7 +13154,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <f t="shared" si="3"/>
         <v>42675</v>
@@ -13174,7 +13175,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <f>EDATE(A433,1)</f>
         <v>42705</v>
@@ -13199,7 +13200,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>57</v>
@@ -13216,7 +13217,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>164</v>
@@ -13231,7 +13232,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="48" t="s">
         <v>91</v>
       </c>
@@ -13250,7 +13251,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EDATE(A434,1)</f>
         <v>42736</v>
@@ -13277,7 +13278,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23">
         <f t="shared" ref="A439:A447" si="4">EDATE(A438,1)</f>
         <v>42767</v>
@@ -13298,7 +13299,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <f t="shared" si="4"/>
         <v>42795</v>
@@ -13325,7 +13326,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -13352,7 +13353,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>57</v>
@@ -13374,7 +13375,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42856</v>
@@ -13395,7 +13396,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -13420,7 +13421,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -13441,7 +13442,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23">
         <f t="shared" si="4"/>
         <v>42948</v>
@@ -13462,7 +13463,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -13483,7 +13484,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -13504,7 +13505,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f t="shared" ref="A449:A450" si="5">EDATE(A448,1)</f>
         <v>43040</v>
@@ -13525,7 +13526,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13552,7 +13553,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>51</v>
@@ -13572,7 +13573,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>46</v>
       </c>
@@ -13594,7 +13595,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>43101</v>
       </c>
@@ -13620,7 +13621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43132</v>
       </c>
@@ -13640,7 +13641,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43160</v>
       </c>
@@ -13666,7 +13667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>43191</v>
       </c>
@@ -13686,7 +13687,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43221</v>
       </c>
@@ -13706,7 +13707,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43252</v>
       </c>
@@ -13730,7 +13731,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>43282</v>
       </c>
@@ -13750,7 +13751,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43313</v>
       </c>
@@ -13770,7 +13771,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>43344</v>
       </c>
@@ -13790,7 +13791,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>43374</v>
       </c>
@@ -13814,7 +13815,7 @@
         <v>43401</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43405</v>
       </c>
@@ -13834,7 +13835,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43435</v>
       </c>
@@ -13858,7 +13859,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>52</v>
@@ -13882,7 +13883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="48" t="s">
         <v>54</v>
       </c>
@@ -13900,7 +13901,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43466</v>
       </c>
@@ -13926,7 +13927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43497</v>
       </c>
@@ -13946,7 +13947,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43525</v>
       </c>
@@ -13966,7 +13967,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43556</v>
       </c>
@@ -13992,7 +13993,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43586</v>
       </c>
@@ -14012,7 +14013,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43617</v>
       </c>
@@ -14036,7 +14037,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43647</v>
       </c>
@@ -14056,7 +14057,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43678</v>
       </c>
@@ -14082,7 +14083,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43709</v>
       </c>
@@ -14102,7 +14103,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43739</v>
       </c>
@@ -14122,7 +14123,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43770</v>
       </c>
@@ -14142,7 +14143,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43800</v>
       </c>
@@ -14168,7 +14169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>59</v>
@@ -14190,7 +14191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="48" t="s">
         <v>61</v>
       </c>
@@ -14208,7 +14209,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43831</v>
       </c>
@@ -14228,7 +14229,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43862</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43891</v>
       </c>
@@ -14272,7 +14273,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43922</v>
       </c>
@@ -14292,7 +14293,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43952</v>
       </c>
@@ -14312,7 +14313,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43983</v>
       </c>
@@ -14332,7 +14333,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44013</v>
       </c>
@@ -14352,7 +14353,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44044</v>
       </c>
@@ -14372,7 +14373,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44075</v>
       </c>
@@ -14398,7 +14399,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>49</v>
@@ -14420,7 +14421,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44105</v>
       </c>
@@ -14440,7 +14441,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44136</v>
       </c>
@@ -14460,7 +14461,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44166</v>
       </c>
@@ -14484,7 +14485,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="48" t="s">
         <v>66</v>
       </c>
@@ -14502,7 +14503,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44197</v>
       </c>
@@ -14522,7 +14523,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44228</v>
       </c>
@@ -14542,7 +14543,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44256</v>
       </c>
@@ -14562,7 +14563,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44287</v>
       </c>
@@ -14582,7 +14583,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44317</v>
       </c>
@@ -14602,7 +14603,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44348</v>
       </c>
@@ -14622,7 +14623,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>44378</v>
       </c>
@@ -14642,7 +14643,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44409</v>
       </c>
@@ -14662,7 +14663,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44440</v>
       </c>
@@ -14682,7 +14683,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>44470</v>
       </c>
@@ -14702,7 +14703,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>44501</v>
       </c>
@@ -14722,7 +14723,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>44531</v>
       </c>
@@ -14746,7 +14747,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="48" t="s">
         <v>67</v>
       </c>
@@ -14764,7 +14765,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f>EDATE(A506,1)</f>
         <v>44562</v>
@@ -14785,7 +14786,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44593</v>
       </c>
@@ -14805,7 +14806,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44621</v>
       </c>
@@ -14825,7 +14826,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44652</v>
       </c>
@@ -14845,7 +14846,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44682</v>
       </c>
@@ -14865,7 +14866,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44713</v>
       </c>
@@ -14889,7 +14890,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>44743</v>
       </c>
@@ -14909,7 +14910,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44774</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44805</v>
       </c>
@@ -14955,7 +14956,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44835</v>
       </c>
@@ -14981,7 +14982,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44866</v>
       </c>
@@ -15005,7 +15006,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>68</v>
@@ -15027,7 +15028,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44896</v>
       </c>
@@ -15053,7 +15054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>69</v>
@@ -15075,7 +15076,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="48" t="s">
         <v>71</v>
       </c>
@@ -15093,7 +15094,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44927</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44958</v>
       </c>
@@ -15145,7 +15146,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44986</v>
       </c>
@@ -15171,7 +15172,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>45017</v>
       </c>
@@ -15191,7 +15192,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>45047</v>
       </c>
@@ -15217,7 +15218,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>45078</v>
       </c>
@@ -15239,7 +15240,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>57</v>
@@ -15261,11 +15262,11 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B530" s="20"/>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A530" s="40"/>
+      <c r="B530" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C530" s="13"/>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
@@ -15274,14 +15275,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H530" s="39"/>
+      <c r="H530" s="39">
+        <v>1</v>
+      </c>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="20"/>
-    </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K530" s="50">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15297,9 +15302,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15315,9 +15320,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15333,9 +15338,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15351,9 +15356,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15369,9 +15374,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15387,9 +15392,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15405,9 +15410,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15423,9 +15428,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15441,9 +15446,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15459,9 +15464,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15477,9 +15482,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15495,9 +15500,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15513,9 +15518,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15531,9 +15536,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15549,9 +15554,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15567,9 +15572,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15585,9 +15590,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15603,9 +15608,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15621,9 +15626,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15639,9 +15644,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15657,9 +15662,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15675,9 +15680,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15693,9 +15698,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15711,9 +15716,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15729,9 +15734,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15747,9 +15752,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15765,9 +15770,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15783,9 +15788,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15801,9 +15806,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15819,9 +15824,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15837,9 +15842,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15855,9 +15860,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15873,9 +15878,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15891,9 +15896,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15909,9 +15914,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15927,9 +15932,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15945,9 +15950,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15963,9 +15968,9 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15981,9 +15986,9 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15999,9 +16004,9 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16017,8 +16022,10 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A572" s="40">
+        <v>46357</v>
+      </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
       <c r="D572" s="39"/>
@@ -16033,7 +16040,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16049,7 +16056,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16065,21 +16072,37 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="41"/>
-      <c r="B575" s="15"/>
-      <c r="C575" s="42"/>
-      <c r="D575" s="43"/>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575" s="40"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39"/>
       <c r="E575" s="9"/>
-      <c r="F575" s="15"/>
-      <c r="G575" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H575" s="43"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
       <c r="I575" s="9"/>
-      <c r="J575" s="12"/>
-      <c r="K575" s="15"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A576" s="41"/>
+      <c r="B576" s="15"/>
+      <c r="C576" s="42"/>
+      <c r="D576" s="43"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="15"/>
+      <c r="G576" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="43"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="12"/>
+      <c r="K576" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16096,10 +16119,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16122,28 +16145,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16156,7 +16179,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16185,7 +16208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -16209,17 +16232,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16240,7 +16263,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16267,7 +16290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16293,7 +16316,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16319,7 +16342,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16345,7 +16368,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16371,7 +16394,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16397,7 +16420,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16423,7 +16446,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16449,7 +16472,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16469,7 +16492,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16489,7 +16512,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16509,7 +16532,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16530,7 +16553,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16551,7 +16574,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16572,7 +16595,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16593,7 +16616,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16614,7 +16637,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16635,7 +16658,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16656,7 +16679,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16677,7 +16700,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16698,7 +16721,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16719,7 +16742,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16740,7 +16763,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16761,7 +16784,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16782,7 +16805,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16803,7 +16826,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16824,7 +16847,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16845,7 +16868,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16866,7 +16889,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16887,7 +16910,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16908,7 +16931,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16929,7 +16952,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16938,7 +16961,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16947,7 +16970,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16956,7 +16979,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16965,7 +16988,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16974,7 +16997,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16983,7 +17006,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16992,7 +17015,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17001,7 +17024,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17010,7 +17033,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17019,7 +17042,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17028,7 +17051,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17037,7 +17060,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17046,7 +17069,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17055,7 +17078,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17064,7 +17087,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17073,7 +17096,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17082,7 +17105,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17091,7 +17114,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17100,7 +17123,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17109,7 +17132,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17118,7 +17141,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17127,7 +17150,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17136,7 +17159,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17145,7 +17168,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17154,7 +17177,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17163,7 +17186,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17172,7 +17195,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17181,7 +17204,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17190,7 +17213,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
